--- a/material/self-assesment.xlsx
+++ b/material/self-assesment.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Grades" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Info" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Max-Grades" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Self-Assess" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">Web Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Project</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Group Activities (280 points: 28%)
+- Pair Programming (380 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">points: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">38%)
+- Feedback (70 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">points: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7%)
+- Exam (270 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">points: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">27%)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- Sprint 1: (80 points: 8 %)
+- Sprint 2: (100 points: 10 %)
+- Sprint 3: (150 points: 15 %)
+- Coding Marathon 1: (80 points: 8 %)  
+- Coding Marathon 2: (80 points: 8 %)
+- Coding Marathon 3: (120 points: 12 %)
+- Six Reflection Journals: (120 points: 12 %)
+- Feedback: (70 points: 7 %)
+- Exam (200 points: 20%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Grade 5: 93%
+- Grade 4: 83%
+- Grade 3: 75%
+- Grade 2: 67%
+- Grade 1: 61%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The maximum grades per week are listed in the sheet (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Max-Grades</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kindly update your self‑assessment in the sheet (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Self-Assess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) based on this information.</t>
+    </r>
+  </si>
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -104,7 +258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -127,6 +281,11 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,18 +293,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFDDE8CB"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -155,7 +308,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
         <bgColor rgb="FFDDE8CB"/>
       </patternFill>
     </fill>
@@ -207,11 +372,31 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,7 +409,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -232,11 +421,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,24 +445,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -276,7 +465,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -447,419 +636,563 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.05"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="88.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="27.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="21.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="16.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+    </row>
+    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>11</v>
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>11</v>
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>11</v>
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>80</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>11</v>
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>11</v>
+      <c r="A7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14" t="n">
+        <v>80</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>120</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>150</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>70</v>
+      </c>
+      <c r="J9" s="14" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="G14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="B18" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="B19" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="B20" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="10" t="n">
+      <c r="B21" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="n">
+      <c r="E21" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>11</v>
+      <c r="F21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="8" t="n">
+      <c r="A22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="12"/>
+      <c r="E22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>70</v>
+      </c>
+      <c r="G22" s="14" t="n">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -870,4 +1203,422 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="21.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="16.79"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="14"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/material/self-assesment.xlsx
+++ b/material/self-assesment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="34">
   <si>
     <t xml:space="preserve">Web Development</t>
   </si>
@@ -30,69 +30,10 @@
     <t xml:space="preserve">Web Project</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- Group Activities (280 points: 28%)
-- Pair Programming (380 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">points: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">38%)
-- Feedback (70 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">points: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7%)
-- Exam (270 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">points: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">27%)</t>
-    </r>
+    <t xml:space="preserve">- Group Activities (280 points: 28%)
+- Pair Programming (380 points: 38%)
+- Feedback (70 points: 7%)
+- Exam (270 points: 27%)</t>
   </si>
   <si>
     <t xml:space="preserve">- Sprint 1: (80 points: 8 %)
@@ -250,6 +191,9 @@
   <si>
     <t xml:space="preserve">Week 2</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -279,11 +223,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -372,28 +311,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,15 +348,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,19 +356,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -644,49 +579,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.05"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="88.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="27.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -714,483 +649,483 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="19.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="24.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="21.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="16.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="19.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="21.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="16.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="B3" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C4" s="14" t="n">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13" t="n">
         <v>80</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="D4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="14" t="n">
+      <c r="B5" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13" t="n">
         <v>80</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="E5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="14" t="n">
+      <c r="B6" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="F6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="14" t="n">
+      <c r="B7" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13" t="n">
         <v>80</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="G7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="14" t="n">
+      <c r="B8" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="13" t="n">
         <v>120</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="H8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="14" t="n">
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="13" t="n">
         <v>150</v>
       </c>
-      <c r="I9" s="14" t="n">
+      <c r="I9" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="J9" s="14" t="n">
+      <c r="J9" s="13" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C15" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="B15" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C16" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="14" t="n">
+      <c r="B16" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C17" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" s="14" t="n">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D17" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C18" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" s="14" t="n">
+      <c r="B18" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" s="14" t="n">
+      <c r="B19" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="E19" s="14" t="n">
+      <c r="E19" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C20" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" s="14" t="n">
+      <c r="B20" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="E20" s="14" t="n">
+      <c r="E20" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" s="14" t="n">
+      <c r="B21" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="14" t="n">
+      <c r="B22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="14" t="n">
+      <c r="E22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="13" t="n">
         <v>70</v>
       </c>
-      <c r="G22" s="14" t="n">
+      <c r="G22" s="13" t="n">
         <v>270</v>
       </c>
     </row>
@@ -1210,407 +1145,412 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="19.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="24.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="21.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="19.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="21.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="15" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
